--- a/Excel2Json/Test/battle_event.xlsx
+++ b/Excel2Json/Test/battle_event.xlsx
@@ -81,12 +81,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>describe</t>
   </si>
   <si>
@@ -102,15 +96,59 @@
     <t>effect_id</t>
   </si>
   <si>
-    <t>vector&lt;int&gt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>127900101|127900102</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>灭霸_技能命中他人</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;32</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vector&lt;int&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;10</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[100]</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,13 +332,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -620,7 +661,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -678,8 +719,8 @@
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>10</v>
+      <c r="B3" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
@@ -690,28 +731,28 @@
       <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>17</v>
+      <c r="F3" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -741,8 +782,8 @@
       <c r="A6" s="1">
         <v>127900101</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>19</v>
+      <c r="B6" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -750,8 +791,8 @@
       <c r="E6" s="1">
         <v>1000</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>18</v>
+      <c r="F6" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="J6" s="2"/>
     </row>
